--- a/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать_накоейки.xlsx
+++ b/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать_накоейки.xlsx
@@ -377,8 +377,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="71:83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1191,7 +1191,7 @@
         <v>639</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>36</v>
@@ -1243,7 +1243,7 @@
         <v>639</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>36</v>
@@ -1269,7 +1269,7 @@
         <v>639</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>36</v>

--- a/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать_накоейки.xlsx
+++ b/MainTop/23.09.2024/макс 3 мес с 01.06.2024 по 23.09.2024/макс_печать_накоейки.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус надпись Дисней</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Барт стоит с скейтом Симпсоны</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза холодное сердце</t>
@@ -375,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2089,13 +2086,13 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>639</v>
@@ -2115,13 +2112,13 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>20</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>639</v>
@@ -2185,32 +2182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E70" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>639</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
